--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.363728</v>
+        <v>0.1153286666666667</v>
       </c>
       <c r="H2">
-        <v>1.091184</v>
+        <v>0.345986</v>
       </c>
       <c r="I2">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="J2">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N2">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q2">
-        <v>1.707925076565333</v>
+        <v>0.5330005439646667</v>
       </c>
       <c r="R2">
-        <v>15.371325689088</v>
+        <v>4.797004895682</v>
       </c>
       <c r="S2">
-        <v>0.05462417563395074</v>
+        <v>0.02155811325347448</v>
       </c>
       <c r="T2">
-        <v>0.05462417563395074</v>
+        <v>0.02155811325347448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.363728</v>
+        <v>0.1153286666666667</v>
       </c>
       <c r="H3">
-        <v>1.091184</v>
+        <v>0.345986</v>
       </c>
       <c r="I3">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="J3">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q3">
-        <v>5.643050902682666</v>
+        <v>1.789264330869556</v>
       </c>
       <c r="R3">
-        <v>50.78745812414399</v>
+        <v>16.103378977826</v>
       </c>
       <c r="S3">
-        <v>0.180480401540419</v>
+        <v>0.07236983812130067</v>
       </c>
       <c r="T3">
-        <v>0.180480401540419</v>
+        <v>0.07236983812130066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.363728</v>
+        <v>0.1153286666666667</v>
       </c>
       <c r="H4">
-        <v>1.091184</v>
+        <v>0.345986</v>
       </c>
       <c r="I4">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="J4">
-        <v>0.3031196334509865</v>
+        <v>0.1212009326543938</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q4">
-        <v>2.126615529674666</v>
+        <v>0.6742943450875556</v>
       </c>
       <c r="R4">
-        <v>19.139539767072</v>
+        <v>6.068649105787999</v>
       </c>
       <c r="S4">
-        <v>0.06801505627661678</v>
+        <v>0.02727298127961868</v>
       </c>
       <c r="T4">
-        <v>0.06801505627661678</v>
+        <v>0.02727298127961868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.561989</v>
       </c>
       <c r="I5">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="J5">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N5">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q5">
-        <v>2.444830736538667</v>
+        <v>2.406285186877</v>
       </c>
       <c r="R5">
-        <v>22.003476628848</v>
+        <v>21.656566681893</v>
       </c>
       <c r="S5">
-        <v>0.07819246018480758</v>
+        <v>0.09732629575382054</v>
       </c>
       <c r="T5">
-        <v>0.07819246018480758</v>
+        <v>0.09732629575382055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.561989</v>
       </c>
       <c r="I6">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="J6">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N6">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q6">
         <v>8.077815873794332</v>
       </c>
       <c r="R6">
-        <v>72.70034286414899</v>
+        <v>72.70034286414901</v>
       </c>
       <c r="S6">
-        <v>0.2583509306603813</v>
+        <v>0.3267209976046785</v>
       </c>
       <c r="T6">
-        <v>0.2583509306603813</v>
+        <v>0.3267209976046785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.561989</v>
       </c>
       <c r="I7">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="J7">
-        <v>0.4339043947991109</v>
+        <v>0.5471739422864045</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.540158</v>
       </c>
       <c r="O7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q7">
         <v>3.044170428251333</v>
@@ -880,10 +880,10 @@
         <v>27.397533854262</v>
       </c>
       <c r="S7">
-        <v>0.09736100395392194</v>
+        <v>0.1231266489279055</v>
       </c>
       <c r="T7">
-        <v>0.09736100395392194</v>
+        <v>0.1231266489279055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>0.3155576666666667</v>
       </c>
       <c r="H8">
-        <v>0.946673</v>
+        <v>0.9466730000000001</v>
       </c>
       <c r="I8">
-        <v>0.2629759717499027</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="J8">
-        <v>0.2629759717499026</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N8">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q8">
-        <v>1.481735945548444</v>
+        <v>1.458374685555667</v>
       </c>
       <c r="R8">
-        <v>13.335623509936</v>
+        <v>13.125372170001</v>
       </c>
       <c r="S8">
-        <v>0.0473900205830722</v>
+        <v>0.05898644380988378</v>
       </c>
       <c r="T8">
-        <v>0.04739002058307219</v>
+        <v>0.05898644380988379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>0.3155576666666667</v>
       </c>
       <c r="H9">
-        <v>0.946673</v>
+        <v>0.9466730000000001</v>
       </c>
       <c r="I9">
-        <v>0.2629759717499027</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="J9">
-        <v>0.2629759717499026</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N9">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q9">
-        <v>4.895713213532555</v>
+        <v>4.895713213532556</v>
       </c>
       <c r="R9">
-        <v>44.06141892179299</v>
+        <v>44.06141892179301</v>
       </c>
       <c r="S9">
-        <v>0.1565784717952912</v>
+        <v>0.1980154450290071</v>
       </c>
       <c r="T9">
-        <v>0.1565784717952912</v>
+        <v>0.1980154450290071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>0.3155576666666667</v>
       </c>
       <c r="H10">
-        <v>0.946673</v>
+        <v>0.9466730000000001</v>
       </c>
       <c r="I10">
-        <v>0.2629759717499027</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="J10">
-        <v>0.2629759717499026</v>
+        <v>0.3316251250592017</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>17.540158</v>
       </c>
       <c r="O10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q10">
         <v>1.844977110481556</v>
@@ -1066,10 +1066,10 @@
         <v>16.604793994334</v>
       </c>
       <c r="S10">
-        <v>0.0590074793715392</v>
+        <v>0.07462323622031081</v>
       </c>
       <c r="T10">
-        <v>0.0590074793715392</v>
+        <v>0.07462323622031081</v>
       </c>
     </row>
   </sheetData>
